--- a/Codelist Excel Files and Conversion Templates to XML/abundanceUSDA,xml.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/abundanceUSDA,xml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{1AC6C44E-5C79-5C44-8993-56A026D5A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{05F70D9B-E979-3144-ABEE-74398E7BF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="35840" windowHeight="19900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="35840" windowHeight="19900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -764,9 +764,6 @@
     <t>Component descrbed  comprises 5 to 15% by volume of the total feature described.</t>
   </si>
   <si>
-    <t>abundanceUSDA.xml</t>
-  </si>
-  <si>
     <t>Code values that describes the relative abundance of component lithologies developed by the United States Department of Agriculture (USDA)  and the Food and Agriculture Organization (FAO)</t>
   </si>
   <si>
@@ -816,6 +813,9 @@
   </si>
   <si>
     <t>USDA soil description for coarse fragments; FAO Guidelines for Soil Description</t>
+  </si>
+  <si>
+    <t>abundanceUSDA</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1597,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1642,13 +1642,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1666,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1721,14 +1721,14 @@
         <v>236</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>235</v>
@@ -1753,10 +1753,10 @@
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1771,17 +1771,17 @@
         <v>238</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1790,23 +1790,23 @@
         <v/>
       </c>
       <c r="B5" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1821,17 +1821,17 @@
         <v>234</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1840,23 +1840,23 @@
         <v/>
       </c>
       <c r="B7" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1865,23 +1865,23 @@
         <v/>
       </c>
       <c r="B8" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1890,23 +1890,23 @@
         <v/>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1969,7 @@
         <v/>
       </c>
       <c r="B2" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>239</v>
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
       <c r="B5" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>239</v>
@@ -2017,7 +2017,7 @@
         <v/>
       </c>
       <c r="B6" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>239</v>
@@ -2029,7 +2029,7 @@
         <v/>
       </c>
       <c r="B7" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>239</v>
@@ -2065,7 +2065,7 @@
         <v/>
       </c>
       <c r="B10" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>240</v>
@@ -2101,7 +2101,7 @@
         <v/>
       </c>
       <c r="B13" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>240</v>
@@ -2113,7 +2113,7 @@
         <v/>
       </c>
       <c r="B14" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>240</v>
@@ -2125,7 +2125,7 @@
         <v/>
       </c>
       <c r="B15" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>240</v>
